--- a/Doc/ExcelConfig/Datas/__enums__.xlsx
+++ b/Doc/ExcelConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="133">
   <si>
     <t>##</t>
   </si>
@@ -398,6 +398,21 @@
   </si>
   <si>
     <t>海外价格</t>
+  </si>
+  <si>
+    <t>EEnum.EEquipSolt</t>
+  </si>
+  <si>
+    <t>Scepter</t>
+  </si>
+  <si>
+    <t>神杖</t>
+  </si>
+  <si>
+    <t>SlotMax</t>
+  </si>
+  <si>
+    <t>最大值</t>
   </si>
 </sst>
 </file>
@@ -1343,10 +1358,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2225,6 +2240,57 @@
         <v>127</v>
       </c>
     </row>
+    <row r="61" spans="2:10">
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
+      <c r="G62" t="s">
+        <v>129</v>
+      </c>
+      <c r="H62" t="s">
+        <v>130</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
+      <c r="G63" t="s">
+        <v>131</v>
+      </c>
+      <c r="H63" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63">
+        <v>12</v>
+      </c>
+      <c r="J63" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/Doc/ExcelConfig/Datas/__enums__.xlsx
+++ b/Doc/ExcelConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="135">
   <si>
     <t>##</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>祝福Buff</t>
+  </si>
+  <si>
+    <t>CostCount</t>
+  </si>
+  <si>
+    <t>消耗数量</t>
   </si>
   <si>
     <t>EEnum.EItemAwakeScript</t>
@@ -1358,10 +1364,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1372,6 +1378,7 @@
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="29.875" customWidth="1"/>
+    <col min="8" max="8" width="12.1666666666667" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2138,41 +2145,41 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
-      <c r="B55" t="s">
+    <row r="55" spans="7:10">
+      <c r="G55" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C55" t="b">
+      <c r="H55" t="s">
+        <v>117</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="b">
         <v>0</v>
       </c>
-      <c r="D55" t="b">
+      <c r="D56" t="b">
         <v>1</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>19</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H56" t="s">
         <v>20</v>
       </c>
-      <c r="I55">
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J56" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10">
-      <c r="G56" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H56" t="s">
-        <v>118</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -2183,7 +2190,7 @@
         <v>120</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>120</v>
@@ -2197,36 +2204,36 @@
         <v>122</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
-      <c r="B59" t="s">
+    <row r="59" spans="7:10">
+      <c r="G59" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C59" t="b">
+      <c r="H59" t="s">
+        <v>124</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="b">
         <v>0</v>
       </c>
-      <c r="D59" t="b">
+      <c r="D60" t="b">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
-        <v>124</v>
-      </c>
-      <c r="H59" t="s">
-        <v>125</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10">
       <c r="G60" t="s">
         <v>126</v>
       </c>
@@ -2234,47 +2241,47 @@
         <v>127</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
-      <c r="B61" t="s">
+    <row r="61" spans="7:10">
+      <c r="G61" t="s">
         <v>128</v>
       </c>
-      <c r="C61" t="b">
+      <c r="H61" t="s">
+        <v>129</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="b">
         <v>0</v>
       </c>
-      <c r="D61" t="b">
+      <c r="D62" t="b">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>19</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H62" t="s">
         <v>20</v>
       </c>
-      <c r="I61">
+      <c r="I62">
         <v>0</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J62" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10">
-      <c r="G62" t="s">
-        <v>129</v>
-      </c>
-      <c r="H62" t="s">
-        <v>130</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -2285,10 +2292,24 @@
         <v>132</v>
       </c>
       <c r="I63">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
+      <c r="G64" t="s">
+        <v>133</v>
+      </c>
+      <c r="H64" t="s">
+        <v>134</v>
+      </c>
+      <c r="I64">
+        <v>12</v>
+      </c>
+      <c r="J64" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__enums__.xlsx
+++ b/Doc/ExcelConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="137">
   <si>
     <t>##</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>通用英雄经验</t>
+  </si>
+  <si>
+    <t>InscriptionExp</t>
+  </si>
+  <si>
+    <t>铭文碎片</t>
   </si>
   <si>
     <t>EEnum.ESellRefreshType</t>
@@ -1364,10 +1370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1534,7 +1540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="7:10">
+    <row r="9" ht="31" spans="7:10">
       <c r="G9" t="s">
         <v>29</v>
       </c>
@@ -1578,35 +1584,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="7:10">
+      <c r="G13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="b">
+      <c r="I13">
+        <v>105</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="b">
+      <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="7:9">
-      <c r="G14" t="s">
-        <v>39</v>
       </c>
       <c r="H14" t="s">
         <v>40</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="7:9">
@@ -1617,7 +1623,7 @@
         <v>42</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="7:9">
@@ -1628,7 +1634,7 @@
         <v>44</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="7:9">
@@ -1639,7 +1645,7 @@
         <v>46</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="7:9">
@@ -1650,7 +1656,7 @@
         <v>48</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="7:9">
@@ -1661,30 +1667,30 @@
         <v>50</v>
       </c>
       <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9">
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="b">
+    <row r="21" spans="2:9">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="b">
+      <c r="D21" t="b">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9">
       <c r="G21" t="s">
         <v>54</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>55</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="7:9">
@@ -1703,7 +1709,7 @@
         <v>57</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="7:9">
@@ -1714,7 +1720,7 @@
         <v>59</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="7:9">
@@ -1725,7 +1731,7 @@
         <v>61</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="7:9">
@@ -1736,7 +1742,7 @@
         <v>63</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="7:9">
@@ -1747,92 +1753,89 @@
         <v>65</v>
       </c>
       <c r="I26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="7:9">
       <c r="G27" t="s">
         <v>66</v>
       </c>
+      <c r="H27" t="s">
+        <v>67</v>
+      </c>
       <c r="I27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="7:9">
       <c r="G28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="7:9">
       <c r="G29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="7:9">
       <c r="G30" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" t="s">
         <v>70</v>
       </c>
       <c r="I30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="7:9">
       <c r="G31" t="s">
         <v>71</v>
       </c>
+      <c r="H31" t="s">
+        <v>72</v>
+      </c>
       <c r="I31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="7:9">
       <c r="G32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="b">
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="b">
         <v>0</v>
       </c>
-      <c r="D33" t="b">
+      <c r="D34" t="b">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>19</v>
-      </c>
-      <c r="H33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10">
-      <c r="G34" t="s">
-        <v>75</v>
       </c>
       <c r="H34" t="s">
         <v>76</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>76</v>
@@ -1846,7 +1849,7 @@
         <v>78</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>78</v>
@@ -1860,7 +1863,7 @@
         <v>80</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
         <v>80</v>
@@ -1874,7 +1877,7 @@
         <v>82</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
         <v>82</v>
@@ -1888,47 +1891,47 @@
         <v>84</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
-      <c r="B39" t="s">
+    <row r="39" spans="7:10">
+      <c r="G39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" t="b">
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="b">
         <v>0</v>
       </c>
-      <c r="D39" t="b">
+      <c r="D40" t="b">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>19</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>20</v>
       </c>
-      <c r="I39">
+      <c r="I40">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J40" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="7:10">
-      <c r="G40" t="s">
-        <v>86</v>
-      </c>
-      <c r="H40" t="s">
-        <v>87</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="41" spans="7:10">
@@ -1939,7 +1942,7 @@
         <v>89</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>89</v>
@@ -1953,7 +1956,7 @@
         <v>91</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>91</v>
@@ -1967,7 +1970,7 @@
         <v>93</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
         <v>93</v>
@@ -1981,7 +1984,7 @@
         <v>95</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
         <v>95</v>
@@ -1995,7 +1998,7 @@
         <v>97</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J45" t="s">
         <v>97</v>
@@ -2009,7 +2012,7 @@
         <v>99</v>
       </c>
       <c r="I46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J46" t="s">
         <v>99</v>
@@ -2023,36 +2026,36 @@
         <v>101</v>
       </c>
       <c r="I47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J47" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
-      <c r="B48" t="s">
+    <row r="48" spans="7:10">
+      <c r="G48" t="s">
         <v>102</v>
       </c>
-      <c r="C48" t="b">
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="b">
         <v>0</v>
       </c>
-      <c r="D48" t="b">
+      <c r="D49" t="b">
         <v>1</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H48" t="s">
-        <v>104</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10">
       <c r="G49" s="3" t="s">
         <v>105</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>106</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>106</v>
@@ -2074,47 +2077,47 @@
         <v>108</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
-      <c r="B51" t="s">
+    <row r="51" spans="7:10">
+      <c r="G51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C51" t="b">
+      <c r="H51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="b">
         <v>0</v>
       </c>
-      <c r="D51" t="b">
+      <c r="D52" t="b">
         <v>1</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>19</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H52" t="s">
         <v>20</v>
       </c>
-      <c r="I51">
+      <c r="I52">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J52" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10">
-      <c r="G52" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H52" t="s">
-        <v>111</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -2125,7 +2128,7 @@
         <v>113</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>113</v>
@@ -2139,7 +2142,7 @@
         <v>115</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>115</v>
@@ -2153,47 +2156,47 @@
         <v>117</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
-      <c r="B56" t="s">
+    <row r="56" spans="7:10">
+      <c r="G56" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C56" t="b">
+      <c r="H56" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="b">
         <v>0</v>
       </c>
-      <c r="D56" t="b">
+      <c r="D57" t="b">
         <v>1</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G57" t="s">
         <v>19</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H57" t="s">
         <v>20</v>
       </c>
-      <c r="I56">
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J57" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10">
-      <c r="G57" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H57" t="s">
-        <v>120</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -2204,7 +2207,7 @@
         <v>122</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>122</v>
@@ -2218,36 +2221,36 @@
         <v>124</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
-      <c r="B60" t="s">
+    <row r="60" spans="7:10">
+      <c r="G60" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C60" t="b">
+      <c r="H60" t="s">
+        <v>126</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="b">
         <v>0</v>
       </c>
-      <c r="D60" t="b">
+      <c r="D61" t="b">
         <v>1</v>
       </c>
-      <c r="G60" t="s">
-        <v>126</v>
-      </c>
-      <c r="H60" t="s">
-        <v>127</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10">
       <c r="G61" t="s">
         <v>128</v>
       </c>
@@ -2255,47 +2258,47 @@
         <v>129</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
-      <c r="B62" t="s">
+    <row r="62" spans="7:10">
+      <c r="G62" t="s">
         <v>130</v>
       </c>
-      <c r="C62" t="b">
+      <c r="H62" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" t="b">
         <v>0</v>
       </c>
-      <c r="D62" t="b">
+      <c r="D63" t="b">
         <v>1</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>19</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H63" t="s">
         <v>20</v>
       </c>
-      <c r="I62">
+      <c r="I63">
         <v>0</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J63" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10">
-      <c r="G63" t="s">
-        <v>131</v>
-      </c>
-      <c r="H63" t="s">
-        <v>132</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -2306,10 +2309,24 @@
         <v>134</v>
       </c>
       <c r="I64">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
+      <c r="G65" t="s">
+        <v>135</v>
+      </c>
+      <c r="H65" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65">
+        <v>12</v>
+      </c>
+      <c r="J65" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__enums__.xlsx
+++ b/Doc/ExcelConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="167">
   <si>
     <t>##</t>
   </si>
@@ -419,6 +419,96 @@
   </si>
   <si>
     <t>神杖</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
+    <t>InscriptionA_1</t>
+  </si>
+  <si>
+    <t>A类型1槽位</t>
+  </si>
+  <si>
+    <t>InscriptionA_2</t>
+  </si>
+  <si>
+    <t>A类型2槽位</t>
+  </si>
+  <si>
+    <t>InscriptionA_3</t>
+  </si>
+  <si>
+    <t>A类型3槽位</t>
+  </si>
+  <si>
+    <t>InscriptionA_4</t>
+  </si>
+  <si>
+    <t>A类型4槽位</t>
+  </si>
+  <si>
+    <t>InscriptionB_1</t>
+  </si>
+  <si>
+    <t>B类型1槽位</t>
+  </si>
+  <si>
+    <t>InscriptionB_2</t>
+  </si>
+  <si>
+    <t>B类型2槽位</t>
+  </si>
+  <si>
+    <t>InscriptionB_3</t>
+  </si>
+  <si>
+    <t>B类型3槽位</t>
+  </si>
+  <si>
+    <t>InscriptionB_4</t>
+  </si>
+  <si>
+    <t>B类型4槽位</t>
+  </si>
+  <si>
+    <t>InscriptionC_1</t>
+  </si>
+  <si>
+    <t>C类型1槽位</t>
+  </si>
+  <si>
+    <t>InscriptionC_2</t>
+  </si>
+  <si>
+    <t>C类型2槽位</t>
+  </si>
+  <si>
+    <t>InscriptionC_3</t>
+  </si>
+  <si>
+    <t>C类型3槽位</t>
+  </si>
+  <si>
+    <t>InscriptionD_1</t>
+  </si>
+  <si>
+    <t>D类型1槽位</t>
+  </si>
+  <si>
+    <t>InscriptionD_2</t>
+  </si>
+  <si>
+    <t>D类型2槽位</t>
+  </si>
+  <si>
+    <t>InscriptionD_3</t>
+  </si>
+  <si>
+    <t>D类型3槽位</t>
   </si>
   <si>
     <t>SlotMax</t>
@@ -1370,10 +1460,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66:J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1386,6 +1476,7 @@
     <col min="7" max="7" width="29.875" customWidth="1"/>
     <col min="8" max="8" width="12.1666666666667" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1540,7 +1631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="31" spans="7:10">
+    <row r="9" spans="7:10">
       <c r="G9" t="s">
         <v>29</v>
       </c>
@@ -2323,10 +2414,220 @@
         <v>136</v>
       </c>
       <c r="I65">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
+      <c r="G66" t="s">
+        <v>137</v>
+      </c>
+      <c r="H66" t="s">
+        <v>138</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
+      <c r="G67" t="s">
+        <v>139</v>
+      </c>
+      <c r="H67" t="s">
+        <v>140</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
+      <c r="G68" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" t="s">
+        <v>142</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
+      <c r="G69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H69" t="s">
+        <v>144</v>
+      </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
+      <c r="J69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
+      <c r="G70" t="s">
+        <v>145</v>
+      </c>
+      <c r="H70" t="s">
+        <v>146</v>
+      </c>
+      <c r="I70">
+        <v>7</v>
+      </c>
+      <c r="J70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
+      <c r="G71" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" t="s">
+        <v>148</v>
+      </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
+      <c r="G72" t="s">
+        <v>149</v>
+      </c>
+      <c r="H72" t="s">
+        <v>150</v>
+      </c>
+      <c r="I72">
+        <v>9</v>
+      </c>
+      <c r="J72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
+      <c r="G73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" t="s">
+        <v>152</v>
+      </c>
+      <c r="I73">
+        <v>10</v>
+      </c>
+      <c r="J73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
+      <c r="G74" t="s">
+        <v>153</v>
+      </c>
+      <c r="H74" t="s">
+        <v>154</v>
+      </c>
+      <c r="I74">
+        <v>11</v>
+      </c>
+      <c r="J74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
+      <c r="G75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H75" t="s">
+        <v>156</v>
+      </c>
+      <c r="I75">
+        <v>12</v>
+      </c>
+      <c r="J75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
+      <c r="G76" t="s">
+        <v>157</v>
+      </c>
+      <c r="H76" t="s">
+        <v>158</v>
+      </c>
+      <c r="I76">
+        <v>13</v>
+      </c>
+      <c r="J76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
+      <c r="G77" t="s">
+        <v>159</v>
+      </c>
+      <c r="H77" t="s">
+        <v>160</v>
+      </c>
+      <c r="I77">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
+      <c r="G78" t="s">
+        <v>161</v>
+      </c>
+      <c r="H78" t="s">
+        <v>162</v>
+      </c>
+      <c r="I78">
+        <v>15</v>
+      </c>
+      <c r="J78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
+      <c r="G79" t="s">
+        <v>163</v>
+      </c>
+      <c r="H79" t="s">
+        <v>164</v>
+      </c>
+      <c r="I79">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
+      <c r="G80" t="s">
+        <v>165</v>
+      </c>
+      <c r="H80" t="s">
+        <v>166</v>
+      </c>
+      <c r="I80">
+        <v>30</v>
+      </c>
+      <c r="J80" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__enums__.xlsx
+++ b/Doc/ExcelConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="173">
   <si>
     <t>##</t>
   </si>
@@ -410,6 +410,24 @@
   </si>
   <si>
     <t>海外价格</t>
+  </si>
+  <si>
+    <t>EEnum.EEnemyCreateType</t>
+  </si>
+  <si>
+    <t>默认创建</t>
+  </si>
+  <si>
+    <t>SummedBattle</t>
+  </si>
+  <si>
+    <t>召唤的战斗怪</t>
+  </si>
+  <si>
+    <t>SummedEgg</t>
+  </si>
+  <si>
+    <t>召唤的偷蛋怪</t>
   </si>
   <si>
     <t>EEnum.EEquipSolt</t>
@@ -1460,10 +1478,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66:J79"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2383,55 +2401,64 @@
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="7:10">
       <c r="G64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="7:10">
       <c r="G65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
       <c r="G66" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -2442,7 +2469,7 @@
         <v>140</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>140</v>
@@ -2456,7 +2483,7 @@
         <v>142</v>
       </c>
       <c r="I68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>142</v>
@@ -2470,7 +2497,7 @@
         <v>144</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
         <v>144</v>
@@ -2484,7 +2511,7 @@
         <v>146</v>
       </c>
       <c r="I70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J70" t="s">
         <v>146</v>
@@ -2498,7 +2525,7 @@
         <v>148</v>
       </c>
       <c r="I71">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J71" t="s">
         <v>148</v>
@@ -2512,7 +2539,7 @@
         <v>150</v>
       </c>
       <c r="I72">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J72" t="s">
         <v>150</v>
@@ -2526,7 +2553,7 @@
         <v>152</v>
       </c>
       <c r="I73">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J73" t="s">
         <v>152</v>
@@ -2540,7 +2567,7 @@
         <v>154</v>
       </c>
       <c r="I74">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J74" t="s">
         <v>154</v>
@@ -2554,7 +2581,7 @@
         <v>156</v>
       </c>
       <c r="I75">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J75" t="s">
         <v>156</v>
@@ -2568,7 +2595,7 @@
         <v>158</v>
       </c>
       <c r="I76">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J76" t="s">
         <v>158</v>
@@ -2582,7 +2609,7 @@
         <v>160</v>
       </c>
       <c r="I77">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J77" t="s">
         <v>160</v>
@@ -2596,7 +2623,7 @@
         <v>162</v>
       </c>
       <c r="I78">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J78" t="s">
         <v>162</v>
@@ -2610,7 +2637,7 @@
         <v>164</v>
       </c>
       <c r="I79">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
         <v>164</v>
@@ -2624,10 +2651,52 @@
         <v>166</v>
       </c>
       <c r="I80">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J80" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10">
+      <c r="G81" t="s">
+        <v>167</v>
+      </c>
+      <c r="H81" t="s">
+        <v>168</v>
+      </c>
+      <c r="I81">
+        <v>15</v>
+      </c>
+      <c r="J81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10">
+      <c r="G82" t="s">
+        <v>169</v>
+      </c>
+      <c r="H82" t="s">
+        <v>170</v>
+      </c>
+      <c r="I82">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="7:10">
+      <c r="G83" t="s">
+        <v>171</v>
+      </c>
+      <c r="H83" t="s">
+        <v>172</v>
+      </c>
+      <c r="I83">
+        <v>30</v>
+      </c>
+      <c r="J83" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__enums__.xlsx
+++ b/Doc/ExcelConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="175">
   <si>
     <t>##</t>
   </si>
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>召唤的偷蛋怪</t>
+  </si>
+  <si>
+    <t>RandomReplace</t>
+  </si>
+  <si>
+    <t>随机替换怪</t>
   </si>
   <si>
     <t>EEnum.EEquipSolt</t>
@@ -1478,10 +1484,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2438,41 +2444,41 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
-      <c r="B66" t="s">
+    <row r="66" spans="7:10">
+      <c r="G66" t="s">
         <v>138</v>
       </c>
-      <c r="C66" t="b">
+      <c r="H66" t="s">
+        <v>139</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" t="b">
         <v>0</v>
       </c>
-      <c r="D66" t="b">
+      <c r="D67" t="b">
         <v>1</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>19</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H67" t="s">
         <v>20</v>
       </c>
-      <c r="I66">
+      <c r="I67">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J67" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10">
-      <c r="G67" t="s">
-        <v>139</v>
-      </c>
-      <c r="H67" t="s">
-        <v>140</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -2483,7 +2489,7 @@
         <v>142</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>142</v>
@@ -2497,7 +2503,7 @@
         <v>144</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>144</v>
@@ -2511,7 +2517,7 @@
         <v>146</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
         <v>146</v>
@@ -2525,7 +2531,7 @@
         <v>148</v>
       </c>
       <c r="I71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
         <v>148</v>
@@ -2539,7 +2545,7 @@
         <v>150</v>
       </c>
       <c r="I72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J72" t="s">
         <v>150</v>
@@ -2553,7 +2559,7 @@
         <v>152</v>
       </c>
       <c r="I73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J73" t="s">
         <v>152</v>
@@ -2567,7 +2573,7 @@
         <v>154</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J74" t="s">
         <v>154</v>
@@ -2581,7 +2587,7 @@
         <v>156</v>
       </c>
       <c r="I75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J75" t="s">
         <v>156</v>
@@ -2595,7 +2601,7 @@
         <v>158</v>
       </c>
       <c r="I76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J76" t="s">
         <v>158</v>
@@ -2609,7 +2615,7 @@
         <v>160</v>
       </c>
       <c r="I77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J77" t="s">
         <v>160</v>
@@ -2623,7 +2629,7 @@
         <v>162</v>
       </c>
       <c r="I78">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J78" t="s">
         <v>162</v>
@@ -2637,7 +2643,7 @@
         <v>164</v>
       </c>
       <c r="I79">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J79" t="s">
         <v>164</v>
@@ -2651,7 +2657,7 @@
         <v>166</v>
       </c>
       <c r="I80">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J80" t="s">
         <v>166</v>
@@ -2665,7 +2671,7 @@
         <v>168</v>
       </c>
       <c r="I81">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J81" t="s">
         <v>168</v>
@@ -2679,7 +2685,7 @@
         <v>170</v>
       </c>
       <c r="I82">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J82" t="s">
         <v>170</v>
@@ -2693,10 +2699,24 @@
         <v>172</v>
       </c>
       <c r="I83">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J83" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="7:10">
+      <c r="G84" t="s">
+        <v>173</v>
+      </c>
+      <c r="H84" t="s">
+        <v>174</v>
+      </c>
+      <c r="I84">
+        <v>30</v>
+      </c>
+      <c r="J84" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__enums__.xlsx
+++ b/Doc/ExcelConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="183">
   <si>
     <t>##</t>
   </si>
@@ -127,7 +127,7 @@
     <t>通用英雄经验</t>
   </si>
   <si>
-    <t>InscriptionExp</t>
+    <t>MingWenExp</t>
   </si>
   <si>
     <t>铭文碎片</t>
@@ -277,6 +277,12 @@
     <t>祝福</t>
   </si>
   <si>
+    <t>MingWen</t>
+  </si>
+  <si>
+    <t>铭文</t>
+  </si>
+  <si>
     <t>EEnum.ERarity</t>
   </si>
   <si>
@@ -397,6 +403,18 @@
     <t>穿戴装备</t>
   </si>
   <si>
+    <t>OwnedToStarStone</t>
+  </si>
+  <si>
+    <t>检查唯一转化成星石</t>
+  </si>
+  <si>
+    <t>ActiveSkin</t>
+  </si>
+  <si>
+    <t>激活皮肤</t>
+  </si>
+  <si>
     <t>EEnum.EShopPriceType</t>
   </si>
   <si>
@@ -475,6 +493,12 @@
     <t>A类型4槽位</t>
   </si>
   <si>
+    <t>InscriptionA_5</t>
+  </si>
+  <si>
+    <t>A类型5槽位</t>
+  </si>
+  <si>
     <t>InscriptionB_1</t>
   </si>
   <si>
@@ -499,6 +523,12 @@
     <t>B类型4槽位</t>
   </si>
   <si>
+    <t>InscriptionB_5</t>
+  </si>
+  <si>
+    <t>B类型5槽位</t>
+  </si>
+  <si>
     <t>InscriptionC_1</t>
   </si>
   <si>
@@ -517,22 +547,16 @@
     <t>C类型3槽位</t>
   </si>
   <si>
-    <t>InscriptionD_1</t>
-  </si>
-  <si>
-    <t>D类型1槽位</t>
-  </si>
-  <si>
-    <t>InscriptionD_2</t>
-  </si>
-  <si>
-    <t>D类型2槽位</t>
-  </si>
-  <si>
-    <t>InscriptionD_3</t>
-  </si>
-  <si>
-    <t>D类型3槽位</t>
+    <t>InscriptionC_4</t>
+  </si>
+  <si>
+    <t>C类型4槽位</t>
+  </si>
+  <si>
+    <t>InscriptionC_5</t>
+  </si>
+  <si>
+    <t>C类型5槽位</t>
   </si>
   <si>
     <t>SlotMax</t>
@@ -1154,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1164,6 +1188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1484,10 +1509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2026,41 +2051,41 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
-      <c r="B40" t="s">
+    <row r="40" spans="7:10">
+      <c r="G40" t="s">
         <v>87</v>
       </c>
-      <c r="C40" t="b">
+      <c r="H40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="b">
         <v>0</v>
       </c>
-      <c r="D40" t="b">
+      <c r="D41" t="b">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>19</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>20</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J41" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="7:10">
-      <c r="G41" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41" t="s">
-        <v>89</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="42" spans="7:10">
@@ -2071,7 +2096,7 @@
         <v>91</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>91</v>
@@ -2085,7 +2110,7 @@
         <v>93</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
         <v>93</v>
@@ -2099,7 +2124,7 @@
         <v>95</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
         <v>95</v>
@@ -2113,7 +2138,7 @@
         <v>97</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
         <v>97</v>
@@ -2127,7 +2152,7 @@
         <v>99</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J46" t="s">
         <v>99</v>
@@ -2141,7 +2166,7 @@
         <v>101</v>
       </c>
       <c r="I47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J47" t="s">
         <v>101</v>
@@ -2155,36 +2180,36 @@
         <v>103</v>
       </c>
       <c r="I48">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J48" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
-      <c r="B49" t="s">
+    <row r="49" spans="7:10">
+      <c r="G49" t="s">
         <v>104</v>
       </c>
-      <c r="C49" t="b">
+      <c r="H49" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="b">
         <v>0</v>
       </c>
-      <c r="D49" t="b">
+      <c r="D50" t="b">
         <v>1</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10">
       <c r="G50" s="3" t="s">
         <v>107</v>
       </c>
@@ -2192,7 +2217,7 @@
         <v>108</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>108</v>
@@ -2206,47 +2231,47 @@
         <v>110</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
-      <c r="B52" t="s">
+    <row r="52" spans="7:10">
+      <c r="G52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C52" t="b">
+      <c r="H52" t="s">
+        <v>112</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="b">
         <v>0</v>
       </c>
-      <c r="D52" t="b">
+      <c r="D53" t="b">
         <v>1</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G53" t="s">
         <v>19</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H53" t="s">
         <v>20</v>
       </c>
-      <c r="I52">
+      <c r="I53">
         <v>0</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J53" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10">
-      <c r="G53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" t="s">
-        <v>113</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -2257,7 +2282,7 @@
         <v>115</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>115</v>
@@ -2271,7 +2296,7 @@
         <v>117</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>117</v>
@@ -2285,47 +2310,47 @@
         <v>119</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
-      <c r="B57" t="s">
+    <row r="57" spans="7:10">
+      <c r="G57" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C57" t="b">
+      <c r="H57" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="b">
         <v>0</v>
       </c>
-      <c r="D57" t="b">
+      <c r="D58" t="b">
         <v>1</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G58" t="s">
         <v>19</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H58" t="s">
         <v>20</v>
       </c>
-      <c r="I57">
+      <c r="I58">
         <v>0</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J58" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10">
-      <c r="G58" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H58" t="s">
-        <v>122</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -2336,7 +2361,7 @@
         <v>124</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>124</v>
@@ -2350,73 +2375,64 @@
         <v>126</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
-      <c r="B61" t="s">
+    <row r="61" spans="7:10">
+      <c r="G61" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>128</v>
       </c>
-      <c r="H61" t="s">
-        <v>129</v>
-      </c>
       <c r="I61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="7:10">
       <c r="G62" t="s">
+        <v>129</v>
+      </c>
+      <c r="H62" t="s">
         <v>130</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
+      <c r="G63" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I62">
+      <c r="H63" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="b">
         <v>1</v>
       </c>
-      <c r="J62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" t="s">
-        <v>133</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10">
       <c r="G64" t="s">
         <v>134</v>
       </c>
@@ -2424,7 +2440,7 @@
         <v>135</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>135</v>
@@ -2438,89 +2454,98 @@
         <v>137</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="7:10">
+    <row r="66" spans="2:10">
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
       <c r="G66" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
         <v>139</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
-      <c r="B67" t="s">
+    <row r="67" spans="7:10">
+      <c r="G67" t="s">
         <v>140</v>
       </c>
-      <c r="C67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D67" t="b">
+      <c r="H67" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
       <c r="J67" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="7:10">
       <c r="G68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="7:10">
       <c r="G69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
       <c r="G70" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -2531,7 +2556,7 @@
         <v>148</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>148</v>
@@ -2545,7 +2570,7 @@
         <v>150</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>150</v>
@@ -2559,7 +2584,7 @@
         <v>152</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J73" t="s">
         <v>152</v>
@@ -2573,7 +2598,7 @@
         <v>154</v>
       </c>
       <c r="I74">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J74" t="s">
         <v>154</v>
@@ -2587,7 +2612,7 @@
         <v>156</v>
       </c>
       <c r="I75">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J75" t="s">
         <v>156</v>
@@ -2601,7 +2626,7 @@
         <v>158</v>
       </c>
       <c r="I76">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J76" t="s">
         <v>158</v>
@@ -2615,7 +2640,7 @@
         <v>160</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J77" t="s">
         <v>160</v>
@@ -2629,7 +2654,7 @@
         <v>162</v>
       </c>
       <c r="I78">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J78" t="s">
         <v>162</v>
@@ -2643,7 +2668,7 @@
         <v>164</v>
       </c>
       <c r="I79">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J79" t="s">
         <v>164</v>
@@ -2657,7 +2682,7 @@
         <v>166</v>
       </c>
       <c r="I80">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J80" t="s">
         <v>166</v>
@@ -2671,7 +2696,7 @@
         <v>168</v>
       </c>
       <c r="I81">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J81" t="s">
         <v>168</v>
@@ -2685,7 +2710,7 @@
         <v>170</v>
       </c>
       <c r="I82">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J82" t="s">
         <v>170</v>
@@ -2699,7 +2724,7 @@
         <v>172</v>
       </c>
       <c r="I83">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J83" t="s">
         <v>172</v>
@@ -2713,10 +2738,66 @@
         <v>174</v>
       </c>
       <c r="I84">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J84" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="7:10">
+      <c r="G85" t="s">
+        <v>175</v>
+      </c>
+      <c r="H85" t="s">
+        <v>176</v>
+      </c>
+      <c r="I85">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10">
+      <c r="G86" t="s">
+        <v>177</v>
+      </c>
+      <c r="H86" t="s">
+        <v>178</v>
+      </c>
+      <c r="I86">
+        <v>23</v>
+      </c>
+      <c r="J86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="7:10">
+      <c r="G87" t="s">
+        <v>179</v>
+      </c>
+      <c r="H87" t="s">
+        <v>180</v>
+      </c>
+      <c r="I87">
+        <v>24</v>
+      </c>
+      <c r="J87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="7:10">
+      <c r="G88" t="s">
+        <v>181</v>
+      </c>
+      <c r="H88" t="s">
+        <v>182</v>
+      </c>
+      <c r="I88">
+        <v>30</v>
+      </c>
+      <c r="J88" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__enums__.xlsx
+++ b/Doc/ExcelConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
   <si>
     <t>##</t>
   </si>
@@ -283,6 +283,12 @@
     <t>铭文</t>
   </si>
   <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
     <t>EEnum.ERarity</t>
   </si>
   <si>
@@ -461,12 +467,6 @@
   </si>
   <si>
     <t>神杖</t>
-  </si>
-  <si>
-    <t>Skin</t>
-  </si>
-  <si>
-    <t>皮肤</t>
   </si>
   <si>
     <t>InscriptionA_1</t>
@@ -1178,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,7 +1188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1509,10 +1508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2065,41 +2064,41 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
-      <c r="B41" t="s">
+    <row r="41" spans="7:10">
+      <c r="G41" t="s">
         <v>89</v>
       </c>
-      <c r="C41" t="b">
+      <c r="H41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="b">
         <v>0</v>
       </c>
-      <c r="D41" t="b">
+      <c r="D42" t="b">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>19</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>20</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J42" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="7:10">
-      <c r="G42" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="43" spans="7:10">
@@ -2110,7 +2109,7 @@
         <v>93</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>93</v>
@@ -2124,7 +2123,7 @@
         <v>95</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>95</v>
@@ -2138,7 +2137,7 @@
         <v>97</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
         <v>97</v>
@@ -2152,7 +2151,7 @@
         <v>99</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
         <v>99</v>
@@ -2166,7 +2165,7 @@
         <v>101</v>
       </c>
       <c r="I47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J47" t="s">
         <v>101</v>
@@ -2180,7 +2179,7 @@
         <v>103</v>
       </c>
       <c r="I48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J48" t="s">
         <v>103</v>
@@ -2194,36 +2193,36 @@
         <v>105</v>
       </c>
       <c r="I49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J49" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
-      <c r="B50" t="s">
+    <row r="50" spans="7:10">
+      <c r="G50" t="s">
         <v>106</v>
       </c>
-      <c r="C50" t="b">
+      <c r="H50" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" t="b">
         <v>0</v>
       </c>
-      <c r="D50" t="b">
+      <c r="D51" t="b">
         <v>1</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H50" t="s">
-        <v>108</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10">
       <c r="G51" s="3" t="s">
         <v>109</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>110</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>110</v>
@@ -2245,47 +2244,47 @@
         <v>112</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
-      <c r="B53" t="s">
+    <row r="53" spans="7:10">
+      <c r="G53" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C53" t="b">
+      <c r="H53" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="b">
         <v>0</v>
       </c>
-      <c r="D53" t="b">
+      <c r="D54" t="b">
         <v>1</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>19</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H54" t="s">
         <v>20</v>
       </c>
-      <c r="I53">
+      <c r="I54">
         <v>0</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J54" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10">
-      <c r="G54" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H54" t="s">
-        <v>115</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -2296,7 +2295,7 @@
         <v>117</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>117</v>
@@ -2310,7 +2309,7 @@
         <v>119</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>119</v>
@@ -2324,47 +2323,47 @@
         <v>121</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
-      <c r="B58" t="s">
+    <row r="58" spans="7:10">
+      <c r="G58" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C58" t="b">
+      <c r="H58" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="b">
         <v>0</v>
       </c>
-      <c r="D58" t="b">
+      <c r="D59" t="b">
         <v>1</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" t="s">
         <v>19</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H59" t="s">
         <v>20</v>
       </c>
-      <c r="I58">
+      <c r="I59">
         <v>0</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J59" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10">
-      <c r="G59" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H59" t="s">
-        <v>124</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -2375,7 +2374,7 @@
         <v>126</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>126</v>
@@ -2389,64 +2388,64 @@
         <v>128</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62" spans="7:10">
-      <c r="G62" t="s">
+      <c r="G62" s="3" t="s">
         <v>129</v>
       </c>
       <c r="H62" t="s">
         <v>130</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="63" spans="7:10">
-      <c r="G63" s="4" t="s">
+      <c r="G63" t="s">
         <v>131</v>
       </c>
       <c r="H63" t="s">
         <v>132</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="2:10">
-      <c r="B64" t="s">
+    <row r="64" spans="7:10">
+      <c r="G64" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C64" t="b">
+      <c r="H64" t="s">
+        <v>134</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" t="b">
         <v>0</v>
       </c>
-      <c r="D64" t="b">
+      <c r="D65" t="b">
         <v>1</v>
       </c>
-      <c r="G64" t="s">
-        <v>134</v>
-      </c>
-      <c r="H64" t="s">
-        <v>135</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10">
       <c r="G65" t="s">
         <v>136</v>
       </c>
@@ -2454,44 +2453,44 @@
         <v>137</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
-      <c r="B66" t="s">
+    <row r="66" spans="7:10">
+      <c r="G66" t="s">
         <v>138</v>
-      </c>
-      <c r="C66" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
       </c>
       <c r="H66" t="s">
         <v>139</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="7:10">
+    <row r="67" spans="2:10">
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
       <c r="G67" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
         <v>141</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>141</v>
@@ -2505,7 +2504,7 @@
         <v>143</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>143</v>
@@ -2519,47 +2518,47 @@
         <v>145</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="2:10">
-      <c r="B70" t="s">
+    <row r="70" spans="7:10">
+      <c r="G70" t="s">
         <v>146</v>
       </c>
-      <c r="C70" t="b">
+      <c r="H70" t="s">
+        <v>147</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="b">
         <v>0</v>
       </c>
-      <c r="D70" t="b">
+      <c r="D71" t="b">
         <v>1</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G71" t="s">
         <v>19</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H71" t="s">
         <v>20</v>
       </c>
-      <c r="I70">
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J71" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10">
-      <c r="G71" t="s">
-        <v>147</v>
-      </c>
-      <c r="H71" t="s">
-        <v>148</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -2570,7 +2569,7 @@
         <v>150</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>150</v>
@@ -2578,225 +2577,239 @@
     </row>
     <row r="73" spans="7:10">
       <c r="G73" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="I73">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="7:10">
       <c r="G74" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="7:10">
       <c r="G75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="7:10">
       <c r="G76" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I76">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="7:10">
       <c r="G77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I77">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="7:10">
       <c r="G78" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I78">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="7:10">
       <c r="G79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I79">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="7:10">
       <c r="G80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I80">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="7:10">
       <c r="G81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I81">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="7:10">
       <c r="G82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I82">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="7:10">
       <c r="G83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I83">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="7:10">
       <c r="G84" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I84">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="7:10">
       <c r="G85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H85" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I85">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J85" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="7:10">
       <c r="G86" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H86" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I86">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J86" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="7:10">
       <c r="G87" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I87">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="7:10">
       <c r="G88" t="s">
+        <v>179</v>
+      </c>
+      <c r="H88" t="s">
+        <v>180</v>
+      </c>
+      <c r="I88">
+        <v>24</v>
+      </c>
+      <c r="J88" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="7:10">
+      <c r="G89" t="s">
         <v>181</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H89" t="s">
         <v>182</v>
       </c>
-      <c r="I88">
+      <c r="I89">
         <v>30</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J89" t="s">
         <v>182</v>
       </c>
     </row>

--- a/Doc/ExcelConfig/Datas/__enums__.xlsx
+++ b/Doc/ExcelConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="187">
   <si>
     <t>##</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>随机替换怪</t>
+  </si>
+  <si>
+    <t>DataDriver</t>
+  </si>
+  <si>
+    <t>数据绑定匹配敌人</t>
+  </si>
+  <si>
+    <t>PublicEnemy</t>
+  </si>
+  <si>
+    <t>共同的敌人</t>
   </si>
   <si>
     <t>EEnum.EEquipSolt</t>
@@ -1508,10 +1520,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2538,83 +2550,83 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="2:10">
-      <c r="B71" t="s">
+    <row r="71" spans="7:10">
+      <c r="G71" t="s">
         <v>148</v>
       </c>
-      <c r="C71" t="b">
-        <v>0</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
       <c r="H71" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="7:10">
       <c r="G72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="b">
         <v>1</v>
       </c>
-      <c r="J72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10">
       <c r="G73" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="7:10">
       <c r="G74" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H74" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I74">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="7:10">
       <c r="G75" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="I75">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -2625,7 +2637,7 @@
         <v>156</v>
       </c>
       <c r="I76">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J76" t="s">
         <v>156</v>
@@ -2639,7 +2651,7 @@
         <v>158</v>
       </c>
       <c r="I77">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J77" t="s">
         <v>158</v>
@@ -2653,7 +2665,7 @@
         <v>160</v>
       </c>
       <c r="I78">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J78" t="s">
         <v>160</v>
@@ -2667,7 +2679,7 @@
         <v>162</v>
       </c>
       <c r="I79">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
         <v>162</v>
@@ -2681,7 +2693,7 @@
         <v>164</v>
       </c>
       <c r="I80">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J80" t="s">
         <v>164</v>
@@ -2695,7 +2707,7 @@
         <v>166</v>
       </c>
       <c r="I81">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J81" t="s">
         <v>166</v>
@@ -2709,7 +2721,7 @@
         <v>168</v>
       </c>
       <c r="I82">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J82" t="s">
         <v>168</v>
@@ -2723,7 +2735,7 @@
         <v>170</v>
       </c>
       <c r="I83">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J83" t="s">
         <v>170</v>
@@ -2737,7 +2749,7 @@
         <v>172</v>
       </c>
       <c r="I84">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J84" t="s">
         <v>172</v>
@@ -2751,7 +2763,7 @@
         <v>174</v>
       </c>
       <c r="I85">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J85" t="s">
         <v>174</v>
@@ -2765,7 +2777,7 @@
         <v>176</v>
       </c>
       <c r="I86">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J86" t="s">
         <v>176</v>
@@ -2779,7 +2791,7 @@
         <v>178</v>
       </c>
       <c r="I87">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J87" t="s">
         <v>178</v>
@@ -2793,7 +2805,7 @@
         <v>180</v>
       </c>
       <c r="I88">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J88" t="s">
         <v>180</v>
@@ -2807,10 +2819,38 @@
         <v>182</v>
       </c>
       <c r="I89">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J89" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="7:10">
+      <c r="G90" t="s">
+        <v>183</v>
+      </c>
+      <c r="H90" t="s">
+        <v>184</v>
+      </c>
+      <c r="I90">
+        <v>24</v>
+      </c>
+      <c r="J90" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="7:10">
+      <c r="G91" t="s">
+        <v>185</v>
+      </c>
+      <c r="H91" t="s">
+        <v>186</v>
+      </c>
+      <c r="I91">
+        <v>30</v>
+      </c>
+      <c r="J91" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__enums__.xlsx
+++ b/Doc/ExcelConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="189">
   <si>
     <t>##</t>
   </si>
@@ -289,6 +289,12 @@
     <t>皮肤</t>
   </si>
   <si>
+    <t>HeroExp</t>
+  </si>
+  <si>
+    <t>英雄经验</t>
+  </si>
+  <si>
     <t>EEnum.ERarity</t>
   </si>
   <si>
@@ -409,10 +415,10 @@
     <t>穿戴装备</t>
   </si>
   <si>
-    <t>OwnedToStarStone</t>
-  </si>
-  <si>
-    <t>检查唯一转化成星石</t>
+    <t>ActiveCourier</t>
+  </si>
+  <si>
+    <t>激活信使</t>
   </si>
   <si>
     <t>ActiveSkin</t>
@@ -1520,10 +1526,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2090,41 +2096,41 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
-      <c r="B42" t="s">
+    <row r="42" spans="7:10">
+      <c r="G42" t="s">
         <v>91</v>
       </c>
-      <c r="C42" t="b">
+      <c r="H42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="J42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="b">
         <v>0</v>
       </c>
-      <c r="D42" t="b">
+      <c r="D43" t="b">
         <v>1</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>19</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H43" t="s">
         <v>20</v>
       </c>
-      <c r="I42">
+      <c r="I43">
         <v>0</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J43" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="7:10">
-      <c r="G43" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" t="s">
-        <v>93</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="44" spans="7:10">
@@ -2135,7 +2141,7 @@
         <v>95</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>95</v>
@@ -2149,7 +2155,7 @@
         <v>97</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>97</v>
@@ -2163,7 +2169,7 @@
         <v>99</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
         <v>99</v>
@@ -2177,7 +2183,7 @@
         <v>101</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
         <v>101</v>
@@ -2191,7 +2197,7 @@
         <v>103</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
         <v>103</v>
@@ -2205,7 +2211,7 @@
         <v>105</v>
       </c>
       <c r="I49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J49" t="s">
         <v>105</v>
@@ -2219,36 +2225,36 @@
         <v>107</v>
       </c>
       <c r="I50">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
-      <c r="B51" t="s">
+    <row r="51" spans="7:10">
+      <c r="G51" t="s">
         <v>108</v>
       </c>
-      <c r="C51" t="b">
+      <c r="H51" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="b">
         <v>0</v>
       </c>
-      <c r="D51" t="b">
+      <c r="D52" t="b">
         <v>1</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" t="s">
-        <v>110</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10">
       <c r="G52" s="3" t="s">
         <v>111</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>112</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>112</v>
@@ -2270,47 +2276,47 @@
         <v>114</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
-      <c r="B54" t="s">
+    <row r="54" spans="7:10">
+      <c r="G54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C54" t="b">
+      <c r="H54" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="b">
         <v>0</v>
       </c>
-      <c r="D54" t="b">
+      <c r="D55" t="b">
         <v>1</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>19</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
         <v>20</v>
       </c>
-      <c r="I54">
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J55" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10">
-      <c r="G55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H55" t="s">
-        <v>117</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -2321,7 +2327,7 @@
         <v>119</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>119</v>
@@ -2335,7 +2341,7 @@
         <v>121</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>121</v>
@@ -2349,47 +2355,47 @@
         <v>123</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
-      <c r="B59" t="s">
+    <row r="59" spans="7:10">
+      <c r="G59" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C59" t="b">
+      <c r="H59" t="s">
+        <v>125</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="b">
         <v>0</v>
       </c>
-      <c r="D59" t="b">
+      <c r="D60" t="b">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G60" t="s">
         <v>19</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H60" t="s">
         <v>20</v>
       </c>
-      <c r="I59">
+      <c r="I60">
         <v>0</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J60" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10">
-      <c r="G60" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H60" t="s">
-        <v>126</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -2400,7 +2406,7 @@
         <v>128</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>128</v>
@@ -2414,64 +2420,64 @@
         <v>130</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="63" spans="7:10">
-      <c r="G63" t="s">
+      <c r="G63" s="3" t="s">
         <v>131</v>
       </c>
       <c r="H63" t="s">
         <v>132</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" spans="7:10">
-      <c r="G64" s="3" t="s">
+      <c r="G64" t="s">
         <v>133</v>
       </c>
       <c r="H64" t="s">
         <v>134</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J64" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
-      <c r="B65" t="s">
+    <row r="65" spans="7:10">
+      <c r="G65" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C65" t="b">
+      <c r="H65" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="b">
         <v>0</v>
       </c>
-      <c r="D65" t="b">
+      <c r="D66" t="b">
         <v>1</v>
       </c>
-      <c r="G65" t="s">
-        <v>136</v>
-      </c>
-      <c r="H65" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10">
       <c r="G66" t="s">
         <v>138</v>
       </c>
@@ -2479,44 +2485,44 @@
         <v>139</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
-      <c r="B67" t="s">
+    <row r="67" spans="7:10">
+      <c r="G67" t="s">
         <v>140</v>
-      </c>
-      <c r="C67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
       </c>
       <c r="H67" t="s">
         <v>141</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="7:10">
+    <row r="68" spans="2:10">
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
       <c r="G68" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
         <v>143</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>143</v>
@@ -2530,7 +2536,7 @@
         <v>145</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>145</v>
@@ -2544,7 +2550,7 @@
         <v>147</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>147</v>
@@ -2558,7 +2564,7 @@
         <v>149</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
         <v>149</v>
@@ -2572,75 +2578,75 @@
         <v>151</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J72" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
-      <c r="B73" t="s">
+    <row r="73" spans="7:10">
+      <c r="G73" t="s">
         <v>152</v>
       </c>
-      <c r="C73" t="b">
+      <c r="H73" t="s">
+        <v>153</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" t="b">
         <v>0</v>
       </c>
-      <c r="D73" t="b">
+      <c r="D74" t="b">
         <v>1</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G74" t="s">
         <v>19</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H74" t="s">
         <v>20</v>
       </c>
-      <c r="I73">
+      <c r="I74">
         <v>0</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J74" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10">
-      <c r="G74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H74" t="s">
-        <v>154</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="75" spans="7:10">
       <c r="G75" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="7:10">
       <c r="G76" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="I76">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -2651,7 +2657,7 @@
         <v>158</v>
       </c>
       <c r="I77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J77" t="s">
         <v>158</v>
@@ -2665,7 +2671,7 @@
         <v>160</v>
       </c>
       <c r="I78">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J78" t="s">
         <v>160</v>
@@ -2679,7 +2685,7 @@
         <v>162</v>
       </c>
       <c r="I79">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J79" t="s">
         <v>162</v>
@@ -2693,7 +2699,7 @@
         <v>164</v>
       </c>
       <c r="I80">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J80" t="s">
         <v>164</v>
@@ -2707,7 +2713,7 @@
         <v>166</v>
       </c>
       <c r="I81">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J81" t="s">
         <v>166</v>
@@ -2721,7 +2727,7 @@
         <v>168</v>
       </c>
       <c r="I82">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J82" t="s">
         <v>168</v>
@@ -2735,7 +2741,7 @@
         <v>170</v>
       </c>
       <c r="I83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J83" t="s">
         <v>170</v>
@@ -2749,7 +2755,7 @@
         <v>172</v>
       </c>
       <c r="I84">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J84" t="s">
         <v>172</v>
@@ -2763,7 +2769,7 @@
         <v>174</v>
       </c>
       <c r="I85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J85" t="s">
         <v>174</v>
@@ -2777,7 +2783,7 @@
         <v>176</v>
       </c>
       <c r="I86">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J86" t="s">
         <v>176</v>
@@ -2791,7 +2797,7 @@
         <v>178</v>
       </c>
       <c r="I87">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J87" t="s">
         <v>178</v>
@@ -2805,7 +2811,7 @@
         <v>180</v>
       </c>
       <c r="I88">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J88" t="s">
         <v>180</v>
@@ -2819,7 +2825,7 @@
         <v>182</v>
       </c>
       <c r="I89">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J89" t="s">
         <v>182</v>
@@ -2833,7 +2839,7 @@
         <v>184</v>
       </c>
       <c r="I90">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J90" t="s">
         <v>184</v>
@@ -2847,10 +2853,24 @@
         <v>186</v>
       </c>
       <c r="I91">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J91" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="7:10">
+      <c r="G92" t="s">
+        <v>187</v>
+      </c>
+      <c r="H92" t="s">
+        <v>188</v>
+      </c>
+      <c r="I92">
+        <v>30</v>
+      </c>
+      <c r="J92" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__enums__.xlsx
+++ b/Doc/ExcelConfig/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="191">
   <si>
     <t>##</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>铭文碎片</t>
+  </si>
+  <si>
+    <t>BattleScore</t>
+  </si>
+  <si>
+    <t>天梯积分</t>
   </si>
   <si>
     <t>EEnum.ESellRefreshType</t>
@@ -1526,10 +1532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1701,6 +1707,9 @@
       <c r="G9" t="s">
         <v>29</v>
       </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
       <c r="I9">
         <v>101</v>
       </c>
@@ -1712,6 +1721,9 @@
       <c r="G10" t="s">
         <v>31</v>
       </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
       <c r="I10">
         <v>102</v>
       </c>
@@ -1723,6 +1735,9 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
       <c r="I11">
         <v>103</v>
       </c>
@@ -1734,6 +1749,9 @@
       <c r="G12" t="s">
         <v>35</v>
       </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
       <c r="I12">
         <v>104</v>
       </c>
@@ -1745,6 +1763,9 @@
       <c r="G13" t="s">
         <v>37</v>
       </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
       <c r="I13">
         <v>105</v>
       </c>
@@ -1752,35 +1773,38 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="7:10">
+      <c r="G14" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
       </c>
       <c r="H14" t="s">
         <v>40</v>
       </c>
       <c r="I14">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="7:9">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
         <v>42</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="7:9">
@@ -1791,7 +1815,7 @@
         <v>44</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="7:9">
@@ -1802,7 +1826,7 @@
         <v>46</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="7:9">
@@ -1813,7 +1837,7 @@
         <v>48</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="7:9">
@@ -1824,7 +1848,7 @@
         <v>50</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="7:9">
@@ -1835,30 +1859,30 @@
         <v>52</v>
       </c>
       <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9">
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="b">
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="b">
+      <c r="D22" t="b">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9">
       <c r="G22" t="s">
         <v>56</v>
       </c>
@@ -1866,7 +1890,7 @@
         <v>57</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="7:9">
@@ -1877,7 +1901,7 @@
         <v>59</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="7:9">
@@ -1888,7 +1912,7 @@
         <v>61</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="7:9">
@@ -1899,7 +1923,7 @@
         <v>63</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="7:9">
@@ -1910,7 +1934,7 @@
         <v>65</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="7:9">
@@ -1921,92 +1945,89 @@
         <v>67</v>
       </c>
       <c r="I27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="7:9">
       <c r="G28" t="s">
         <v>68</v>
       </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
       <c r="I28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="7:9">
       <c r="G29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="7:9">
       <c r="G30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="7:9">
       <c r="G31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" t="s">
         <v>72</v>
       </c>
       <c r="I31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="7:9">
       <c r="G32" t="s">
         <v>73</v>
       </c>
+      <c r="H32" t="s">
+        <v>74</v>
+      </c>
       <c r="I32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="7:9">
       <c r="G33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9">
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="b">
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="b">
         <v>0</v>
       </c>
-      <c r="D34" t="b">
+      <c r="D35" t="b">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>19</v>
-      </c>
-      <c r="H34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10">
-      <c r="G35" t="s">
-        <v>77</v>
       </c>
       <c r="H35" t="s">
         <v>78</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>78</v>
@@ -2020,7 +2041,7 @@
         <v>80</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>80</v>
@@ -2034,7 +2055,7 @@
         <v>82</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
         <v>82</v>
@@ -2048,7 +2069,7 @@
         <v>84</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
         <v>84</v>
@@ -2062,7 +2083,7 @@
         <v>86</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
         <v>86</v>
@@ -2076,7 +2097,7 @@
         <v>88</v>
       </c>
       <c r="I40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
         <v>88</v>
@@ -2090,7 +2111,7 @@
         <v>90</v>
       </c>
       <c r="I41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J41" t="s">
         <v>90</v>
@@ -2104,47 +2125,47 @@
         <v>92</v>
       </c>
       <c r="I42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
-      <c r="B43" t="s">
+    <row r="43" spans="7:10">
+      <c r="G43" t="s">
         <v>93</v>
       </c>
-      <c r="C43" t="b">
+      <c r="H43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="b">
         <v>0</v>
       </c>
-      <c r="D43" t="b">
+      <c r="D44" t="b">
         <v>1</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>19</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" t="s">
         <v>20</v>
       </c>
-      <c r="I43">
+      <c r="I44">
         <v>0</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J44" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="7:10">
-      <c r="G44" t="s">
-        <v>94</v>
-      </c>
-      <c r="H44" t="s">
-        <v>95</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="45" spans="7:10">
@@ -2155,7 +2176,7 @@
         <v>97</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>97</v>
@@ -2169,7 +2190,7 @@
         <v>99</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>99</v>
@@ -2183,7 +2204,7 @@
         <v>101</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
         <v>101</v>
@@ -2197,7 +2218,7 @@
         <v>103</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J48" t="s">
         <v>103</v>
@@ -2211,7 +2232,7 @@
         <v>105</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J49" t="s">
         <v>105</v>
@@ -2225,7 +2246,7 @@
         <v>107</v>
       </c>
       <c r="I50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J50" t="s">
         <v>107</v>
@@ -2239,36 +2260,36 @@
         <v>109</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J51" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
-      <c r="B52" t="s">
+    <row r="52" spans="7:10">
+      <c r="G52" t="s">
         <v>110</v>
       </c>
-      <c r="C52" t="b">
+      <c r="H52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="b">
         <v>0</v>
       </c>
-      <c r="D52" t="b">
+      <c r="D53" t="b">
         <v>1</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H52" t="s">
-        <v>112</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10">
       <c r="G53" s="3" t="s">
         <v>113</v>
       </c>
@@ -2276,7 +2297,7 @@
         <v>114</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>114</v>
@@ -2290,47 +2311,47 @@
         <v>116</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
-      <c r="B55" t="s">
+    <row r="55" spans="7:10">
+      <c r="G55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C55" t="b">
+      <c r="H55" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="b">
         <v>0</v>
       </c>
-      <c r="D55" t="b">
+      <c r="D56" t="b">
         <v>1</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>19</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H56" t="s">
         <v>20</v>
       </c>
-      <c r="I55">
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J56" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10">
-      <c r="G56" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H56" t="s">
-        <v>119</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -2341,7 +2362,7 @@
         <v>121</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>121</v>
@@ -2355,7 +2376,7 @@
         <v>123</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>123</v>
@@ -2369,47 +2390,47 @@
         <v>125</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
-      <c r="B60" t="s">
+    <row r="60" spans="7:10">
+      <c r="G60" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C60" t="b">
+      <c r="H60" t="s">
+        <v>127</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" t="b">
         <v>0</v>
       </c>
-      <c r="D60" t="b">
+      <c r="D61" t="b">
         <v>1</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
         <v>19</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>20</v>
       </c>
-      <c r="I60">
+      <c r="I61">
         <v>0</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J61" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10">
-      <c r="G61" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H61" t="s">
-        <v>128</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -2420,7 +2441,7 @@
         <v>130</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>130</v>
@@ -2434,64 +2455,64 @@
         <v>132</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" spans="7:10">
-      <c r="G64" t="s">
+      <c r="G64" s="3" t="s">
         <v>133</v>
       </c>
       <c r="H64" t="s">
         <v>134</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="7:10">
-      <c r="G65" s="3" t="s">
+      <c r="G65" t="s">
         <v>135</v>
       </c>
       <c r="H65" t="s">
         <v>136</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J65" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
-      <c r="B66" t="s">
+    <row r="66" spans="7:10">
+      <c r="G66" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C66" t="b">
+      <c r="H66" t="s">
+        <v>138</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" t="b">
         <v>0</v>
       </c>
-      <c r="D66" t="b">
+      <c r="D67" t="b">
         <v>1</v>
       </c>
-      <c r="G66" t="s">
-        <v>138</v>
-      </c>
-      <c r="H66" t="s">
-        <v>139</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10">
       <c r="G67" t="s">
         <v>140</v>
       </c>
@@ -2499,44 +2520,44 @@
         <v>141</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="2:10">
-      <c r="B68" t="s">
+    <row r="68" spans="7:10">
+      <c r="G68" t="s">
         <v>142</v>
-      </c>
-      <c r="C68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
       </c>
       <c r="H68" t="s">
         <v>143</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="7:10">
+    <row r="69" spans="2:10">
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
       <c r="G69" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
         <v>145</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>145</v>
@@ -2550,7 +2571,7 @@
         <v>147</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>147</v>
@@ -2564,7 +2585,7 @@
         <v>149</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>149</v>
@@ -2578,7 +2599,7 @@
         <v>151</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
         <v>151</v>
@@ -2592,75 +2613,75 @@
         <v>153</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="2:10">
-      <c r="B74" t="s">
+    <row r="74" spans="7:10">
+      <c r="G74" t="s">
         <v>154</v>
       </c>
-      <c r="C74" t="b">
+      <c r="H74" t="s">
+        <v>155</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" t="b">
         <v>0</v>
       </c>
-      <c r="D74" t="b">
+      <c r="D75" t="b">
         <v>1</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G75" t="s">
         <v>19</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H75" t="s">
         <v>20</v>
       </c>
-      <c r="I74">
+      <c r="I75">
         <v>0</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J75" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10">
-      <c r="G75" t="s">
-        <v>155</v>
-      </c>
-      <c r="H75" t="s">
-        <v>156</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="76" spans="7:10">
       <c r="G76" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="H76" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="7:10">
       <c r="G77" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="H77" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -2671,7 +2692,7 @@
         <v>160</v>
       </c>
       <c r="I78">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J78" t="s">
         <v>160</v>
@@ -2685,7 +2706,7 @@
         <v>162</v>
       </c>
       <c r="I79">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J79" t="s">
         <v>162</v>
@@ -2699,7 +2720,7 @@
         <v>164</v>
       </c>
       <c r="I80">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J80" t="s">
         <v>164</v>
@@ -2713,7 +2734,7 @@
         <v>166</v>
       </c>
       <c r="I81">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J81" t="s">
         <v>166</v>
@@ -2727,7 +2748,7 @@
         <v>168</v>
       </c>
       <c r="I82">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J82" t="s">
         <v>168</v>
@@ -2741,7 +2762,7 @@
         <v>170</v>
       </c>
       <c r="I83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J83" t="s">
         <v>170</v>
@@ -2755,7 +2776,7 @@
         <v>172</v>
       </c>
       <c r="I84">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J84" t="s">
         <v>172</v>
@@ -2769,7 +2790,7 @@
         <v>174</v>
       </c>
       <c r="I85">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J85" t="s">
         <v>174</v>
@@ -2783,7 +2804,7 @@
         <v>176</v>
       </c>
       <c r="I86">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J86" t="s">
         <v>176</v>
@@ -2797,7 +2818,7 @@
         <v>178</v>
       </c>
       <c r="I87">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J87" t="s">
         <v>178</v>
@@ -2811,7 +2832,7 @@
         <v>180</v>
       </c>
       <c r="I88">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J88" t="s">
         <v>180</v>
@@ -2825,7 +2846,7 @@
         <v>182</v>
       </c>
       <c r="I89">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J89" t="s">
         <v>182</v>
@@ -2839,7 +2860,7 @@
         <v>184</v>
       </c>
       <c r="I90">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J90" t="s">
         <v>184</v>
@@ -2853,7 +2874,7 @@
         <v>186</v>
       </c>
       <c r="I91">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J91" t="s">
         <v>186</v>
@@ -2867,10 +2888,24 @@
         <v>188</v>
       </c>
       <c r="I92">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J92" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="7:10">
+      <c r="G93" t="s">
+        <v>189</v>
+      </c>
+      <c r="H93" t="s">
+        <v>190</v>
+      </c>
+      <c r="I93">
+        <v>30</v>
+      </c>
+      <c r="J93" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
